--- a/Reclass_Collection5.xlsx
+++ b/Reclass_Collection5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapede/Desktop/Dissertation/Dados Suporte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7788815B-07C3-6A48-A4CD-281ABCCCAF01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD406630-C4FB-F84C-B81D-45CD1158542A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="24900" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="24900" windowHeight="16220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classification" sheetId="1" r:id="rId1"/>
@@ -1490,17 +1490,17 @@
     <xf numFmtId="0" fontId="0" fillId="43" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1911,31 +1911,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="H1" s="54" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="H1" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="53" t="s">
         <v>94</v>
       </c>
       <c r="O1" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="54" t="s">
+      <c r="P1" s="55"/>
+      <c r="Q1" s="53" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1953,26 +1953,26 @@
         <v>4</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55" t="s">
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
     </row>
     <row r="3" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -1988,11 +1988,11 @@
         <v>129912</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="H3" s="56">
+      <c r="H3" s="54">
         <f>C3</f>
         <v>1</v>
       </c>
-      <c r="I3" s="56">
+      <c r="I3" s="54">
         <f>C$19</f>
         <v>39</v>
       </c>
@@ -2000,11 +2000,11 @@
         <f>_xlfn.CONCAT(H3,I3)</f>
         <v>139</v>
       </c>
-      <c r="K3" s="56">
+      <c r="K3" s="54">
         <f>C16</f>
         <v>15</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="54">
         <f>I3</f>
         <v>39</v>
       </c>
@@ -2012,11 +2012,11 @@
         <f>_xlfn.CONCAT(K3,L3)</f>
         <v>1539</v>
       </c>
-      <c r="N3" s="56">
+      <c r="N3" s="54">
         <f>C3</f>
         <v>1</v>
       </c>
-      <c r="O3" s="56">
+      <c r="O3" s="54">
         <f>C$15</f>
         <v>14</v>
       </c>
@@ -2024,17 +2024,11 @@
         <f>_xlfn.CONCAT(N3,O3)</f>
         <v>114</v>
       </c>
-      <c r="Q3" s="56">
-        <f>C17</f>
-        <v>18</v>
-      </c>
-      <c r="R3" s="56">
-        <f>C$19</f>
-        <v>39</v>
-      </c>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
       <c r="S3" t="str">
         <f>_xlfn.CONCAT(Q3,R3)</f>
-        <v>1839</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2051,11 +2045,11 @@
         <v>9</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="H4" s="56">
-        <f t="shared" ref="H4:H8" si="0">C4</f>
+      <c r="H4" s="54">
+        <f t="shared" ref="H4:H7" si="0">C4</f>
         <v>2</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="54">
         <f t="shared" ref="I4:I7" si="1">C$19</f>
         <v>39</v>
       </c>
@@ -2063,10 +2057,10 @@
         <f>_xlfn.CONCAT(H4,I4)</f>
         <v>239</v>
       </c>
-      <c r="N4" s="56">
+      <c r="N4" s="54">
         <v>1</v>
       </c>
-      <c r="O4" s="56">
+      <c r="O4" s="54">
         <f>C$31</f>
         <v>31</v>
       </c>
@@ -2074,11 +2068,11 @@
         <f t="shared" ref="P4:P19" si="2">_xlfn.CONCAT(N4,O4)</f>
         <v>131</v>
       </c>
-      <c r="Q4" s="56">
+      <c r="Q4" s="54">
         <f>C18</f>
         <v>19</v>
       </c>
-      <c r="R4" s="56">
+      <c r="R4" s="54">
         <f t="shared" ref="R4:R8" si="3">C$19</f>
         <v>39</v>
       </c>
@@ -2101,11 +2095,11 @@
         <v>6400</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="H5" s="56">
+      <c r="H5" s="54">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="54">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -2113,11 +2107,11 @@
         <f t="shared" ref="J5:J8" si="5">_xlfn.CONCAT(H5,I5)</f>
         <v>339</v>
       </c>
-      <c r="N5" s="56">
+      <c r="N5" s="54">
         <f>C4</f>
         <v>2</v>
       </c>
-      <c r="O5" s="56">
+      <c r="O5" s="54">
         <f>C$15</f>
         <v>14</v>
       </c>
@@ -2125,11 +2119,11 @@
         <f t="shared" si="2"/>
         <v>214</v>
       </c>
-      <c r="Q5" s="56">
+      <c r="Q5" s="54">
         <f>C20</f>
         <v>20</v>
       </c>
-      <c r="R5" s="56">
+      <c r="R5" s="54">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
@@ -2152,11 +2146,11 @@
         <v>14</v>
       </c>
       <c r="E6" s="15"/>
-      <c r="H6" s="56">
+      <c r="H6" s="54">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="54">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -2164,11 +2158,11 @@
         <f t="shared" si="5"/>
         <v>439</v>
       </c>
-      <c r="N6" s="56">
+      <c r="N6" s="54">
         <f>N5</f>
         <v>2</v>
       </c>
-      <c r="O6" s="56">
+      <c r="O6" s="54">
         <f>C$31</f>
         <v>31</v>
       </c>
@@ -2176,11 +2170,11 @@
         <f t="shared" si="2"/>
         <v>231</v>
       </c>
-      <c r="Q6" s="56">
+      <c r="Q6" s="54">
         <f>C21</f>
         <v>41</v>
       </c>
-      <c r="R6" s="56">
+      <c r="R6" s="54">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
@@ -2203,11 +2197,11 @@
         <v>687537</v>
       </c>
       <c r="E7" s="16"/>
-      <c r="H7" s="56">
+      <c r="H7" s="54">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="54">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -2215,11 +2209,11 @@
         <f t="shared" si="5"/>
         <v>539</v>
       </c>
-      <c r="N7" s="56">
+      <c r="N7" s="54">
         <f>C5</f>
         <v>3</v>
       </c>
-      <c r="O7" s="56">
+      <c r="O7" s="54">
         <f>C$15</f>
         <v>14</v>
       </c>
@@ -2227,11 +2221,11 @@
         <f t="shared" si="2"/>
         <v>314</v>
       </c>
-      <c r="Q7" s="56">
+      <c r="Q7" s="54">
         <f>C22</f>
         <v>36</v>
       </c>
-      <c r="R7" s="56">
+      <c r="R7" s="54">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
@@ -2254,17 +2248,17 @@
         <v>935132</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
       <c r="J8" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N8" s="56">
+      <c r="N8" s="54">
         <f>N7</f>
         <v>3</v>
       </c>
-      <c r="O8" s="56">
+      <c r="O8" s="54">
         <f>C$31</f>
         <v>31</v>
       </c>
@@ -2272,11 +2266,11 @@
         <f t="shared" si="2"/>
         <v>331</v>
       </c>
-      <c r="Q8" s="56">
+      <c r="Q8" s="54">
         <f>C23</f>
         <v>21</v>
       </c>
-      <c r="R8" s="56">
+      <c r="R8" s="54">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
@@ -2299,12 +2293,12 @@
         <v>21</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="H9" s="56"/>
-      <c r="N9" s="56">
+      <c r="H9" s="54"/>
+      <c r="N9" s="54">
         <f>C6</f>
         <v>4</v>
       </c>
-      <c r="O9" s="56">
+      <c r="O9" s="54">
         <f>C$15</f>
         <v>14</v>
       </c>
@@ -2327,11 +2321,11 @@
         <v>24</v>
       </c>
       <c r="E10" s="20"/>
-      <c r="N10" s="56">
+      <c r="N10" s="54">
         <f>N9</f>
         <v>4</v>
       </c>
-      <c r="O10" s="56">
+      <c r="O10" s="54">
         <f>C$31</f>
         <v>31</v>
       </c>
@@ -2354,11 +2348,11 @@
         <v>27</v>
       </c>
       <c r="E11" s="21"/>
-      <c r="N11" s="56">
+      <c r="N11" s="54">
         <f>C7</f>
         <v>5</v>
       </c>
-      <c r="O11" s="56">
+      <c r="O11" s="54">
         <f>C$15</f>
         <v>14</v>
       </c>
@@ -2381,11 +2375,11 @@
         <v>30</v>
       </c>
       <c r="E12" s="22"/>
-      <c r="N12" s="56">
+      <c r="N12" s="54">
         <f>N11</f>
         <v>5</v>
       </c>
-      <c r="O12" s="56">
+      <c r="O12" s="54">
         <f>C$31</f>
         <v>31</v>
       </c>
@@ -2832,7 +2826,7 @@
         <v>139</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B11" si="1">A2</f>
+        <f t="shared" ref="B7:B10" si="1">A2</f>
         <v>238</v>
       </c>
       <c r="C7">
@@ -3049,11 +3043,11 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
-        <f t="shared" ref="A8:A12" si="1">B2</f>
+        <f t="shared" ref="A8:A11" si="1">B2</f>
         <v>231</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B12" si="2">A3</f>
+        <f t="shared" ref="B8:B10" si="2">A3</f>
         <v>313</v>
       </c>
       <c r="C8">
@@ -3105,10 +3099,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0850F94A-3E42-8E4B-A976-B6EEFD866CF9}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3116,11 +3110,11 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <f>B1-1</f>
-        <v>1838</v>
+        <v>1938</v>
       </c>
       <c r="B1" t="str">
-        <f>Classification!S3</f>
-        <v>1839</v>
+        <f>Classification!S4</f>
+        <v>1939</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -3128,12 +3122,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
-        <f t="shared" ref="A2:A6" si="0">B2-1</f>
-        <v>1938</v>
+        <f t="shared" ref="A2:A5" si="0">B2-1</f>
+        <v>2038</v>
       </c>
       <c r="B2" t="str">
-        <f>Classification!S4</f>
-        <v>1939</v>
+        <f>Classification!S5</f>
+        <v>2039</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3142,11 +3136,11 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <f t="shared" si="0"/>
-        <v>2038</v>
+        <v>4138</v>
       </c>
       <c r="B3" t="str">
-        <f>Classification!S5</f>
-        <v>2039</v>
+        <f>Classification!S6</f>
+        <v>4139</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3155,11 +3149,11 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>4138</v>
+        <v>3638</v>
       </c>
       <c r="B4" t="str">
-        <f>Classification!S6</f>
-        <v>4139</v>
+        <f>Classification!S7</f>
+        <v>3639</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3168,11 +3162,11 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>3638</v>
+        <v>2138</v>
       </c>
       <c r="B5" t="str">
-        <f>Classification!S7</f>
-        <v>3639</v>
+        <f>Classification!S8</f>
+        <v>2139</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3180,62 +3174,53 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>2138</v>
-      </c>
-      <c r="B6" t="str">
-        <f>Classification!S8</f>
-        <v>2139</v>
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1938</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>0</v>
+        <v>1939</v>
       </c>
       <c r="B7">
-        <f>A1</f>
-        <v>1838</v>
+        <v>2038</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="str">
-        <f>B1</f>
-        <v>1839</v>
+      <c r="A8">
+        <v>2039</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B13" si="1">A2</f>
-        <v>1938</v>
+        <v>2138</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="str">
-        <f t="shared" ref="A9:A17" si="2">B2</f>
-        <v>1939</v>
+      <c r="A9">
+        <v>2139</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
-        <v>2038</v>
+        <v>3638</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="str">
-        <f t="shared" si="2"/>
-        <v>2039</v>
+      <c r="A10">
+        <v>3639</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
         <v>4138</v>
       </c>
       <c r="C10">
@@ -3243,40 +3228,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="str">
-        <f t="shared" si="2"/>
+      <c r="A11">
         <v>4139</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
-        <v>3638</v>
+        <v>5000</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="str">
-        <f t="shared" si="2"/>
-        <v>3639</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="1"/>
-        <v>2138</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="str">
-        <f t="shared" si="2"/>
-        <v>2139</v>
-      </c>
-      <c r="B13">
-        <v>4000</v>
-      </c>
-      <c r="C13">
         <v>0</v>
       </c>
     </row>

--- a/Reclass_Collection5.xlsx
+++ b/Reclass_Collection5.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapede/Desktop/Dissertation/Dados Suporte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD406630-C4FB-F84C-B81D-45CD1158542A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E92587-9979-E444-A73E-64FF56E6691B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="24900" windowHeight="16220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="24900" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classification" sheetId="1" r:id="rId1"/>
-    <sheet name="F2S" sheetId="5" r:id="rId2"/>
-    <sheet name="P2S" sheetId="3" r:id="rId3"/>
-    <sheet name="FCL" sheetId="4" r:id="rId4"/>
-    <sheet name="C2S" sheetId="2" r:id="rId5"/>
+    <sheet name="Article Explanation" sheetId="8" state="hidden" r:id="rId2"/>
+    <sheet name="Land_Use" sheetId="7" state="hidden" r:id="rId3"/>
+    <sheet name="F2S" sheetId="5" r:id="rId4"/>
+    <sheet name="P2S" sheetId="3" r:id="rId5"/>
+    <sheet name="FCL" sheetId="4" r:id="rId6"/>
+    <sheet name="C2S" sheetId="2" r:id="rId7"/>
+    <sheet name="F2C" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="118">
   <si>
     <r>
       <rPr>
@@ -150,16 +153,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>1.1. Natural Forest</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>1F4423</t>
     </r>
   </si>
@@ -180,16 +173,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>1.1.1. Forest Formation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>1.1.2. Formação Savânica</t>
     </r>
   </si>
@@ -200,16 +183,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>1.1.2. Savanna Formation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>32CD32</t>
     </r>
   </si>
@@ -302,16 +275,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>2.1. Wetland</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>45C2A5</t>
     </r>
   </si>
@@ -332,16 +295,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>2.2. Grassland Formation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>B8AF4F</t>
     </r>
   </si>
@@ -634,16 +587,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>3.2.1.3. Other Temporary Crops</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>e787f8</t>
     </r>
   </si>
@@ -674,16 +617,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>3.2.2. Perennial Crop</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>f3b4f1</t>
     </r>
   </si>
@@ -704,16 +637,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>3.3. Mosaic of Agriculture and Pasture</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>FFEFC3</t>
     </r>
   </si>
@@ -1007,6 +930,84 @@
   </si>
   <si>
     <t>Here I will consider the interval</t>
+  </si>
+  <si>
+    <t>F2C</t>
+  </si>
+  <si>
+    <t>Para</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Pasture/Mosaic of Agriculture and Pasture</t>
+  </si>
+  <si>
+    <t>Soy Crops</t>
+  </si>
+  <si>
+    <t>Other Crops</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>MapBiomas ID's</t>
+  </si>
+  <si>
+    <t>Pasture</t>
+  </si>
+  <si>
+    <t>19,20,41,36,21</t>
+  </si>
+  <si>
+    <t>Land-Use</t>
+  </si>
+  <si>
+    <t>MapBiomas Categories considered</t>
+  </si>
+  <si>
+    <t>1.1. Natural Forest</t>
+  </si>
+  <si>
+    <t>1.1.1. Forest Formation</t>
+  </si>
+  <si>
+    <t>1.1.2. Savanna Formation</t>
+  </si>
+  <si>
+    <t>1,2,3,4,11,12</t>
+  </si>
+  <si>
+    <t>2.1. Wetland</t>
+  </si>
+  <si>
+    <t>2.2. Grassland Formation</t>
+  </si>
+  <si>
+    <t>Forest, Natural Forest, Forest Formation, Savanna Formation,Wetland and Grassland Formation</t>
+  </si>
+  <si>
+    <t>Soybean</t>
+  </si>
+  <si>
+    <t>3.2.1.3. Other Temporary Crops</t>
+  </si>
+  <si>
+    <t>3.2.2. Perennial Crop</t>
+  </si>
+  <si>
+    <t>3.3. Mosaic of Agriculture and Pasture</t>
+  </si>
+  <si>
+    <t>Temporary Crop, Sugar cane, Other Temporary Crops, Perennial Crop, Mosaic of Agriculture and Pasture</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1326,11 +1327,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1499,11 +1509,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1893,10 +1915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1910,36 +1932,36 @@
     <col min="16" max="16" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+    <row r="1" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
       <c r="H1" s="53" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I1" s="53" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K1" s="53" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="P1" s="55"/>
+        <v>86</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="56"/>
       <c r="Q1" s="53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1953,28 +1975,33 @@
         <v>4</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="H2" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56" t="s">
+      <c r="H2" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-    </row>
-    <row r="3" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2030,27 +2057,38 @@
         <f>_xlfn.CONCAT(Q3,R3)</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="54">
+        <f>Q4</f>
+        <v>19</v>
+      </c>
+      <c r="V3" t="str">
+        <f>_xlfn.CONCAT(T3,U3)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="11"/>
       <c r="H4" s="54">
-        <f t="shared" ref="H4:H7" si="0">C4</f>
+        <f t="shared" ref="H4:H6" si="0">C4</f>
         <v>2</v>
       </c>
       <c r="I4" s="54">
-        <f t="shared" ref="I4:I7" si="1">C$19</f>
+        <f t="shared" ref="I4:I8" si="1">C$19</f>
         <v>39</v>
       </c>
       <c r="J4" t="str">
@@ -2065,7 +2103,7 @@
         <v>31</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" ref="P4:P19" si="2">_xlfn.CONCAT(N4,O4)</f>
+        <f t="shared" ref="P4:P17" si="2">_xlfn.CONCAT(N4,O4)</f>
         <v>131</v>
       </c>
       <c r="Q4" s="54">
@@ -2080,13 +2118,24 @@
         <f t="shared" ref="S4:S8" si="4">_xlfn.CONCAT(Q4,R4)</f>
         <v>1939</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" s="54">
+        <f t="shared" ref="U4:U7" si="5">Q5</f>
+        <v>20</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" ref="V4:V27" si="6">_xlfn.CONCAT(T4,U4)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
@@ -2104,7 +2153,7 @@
         <v>39</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J8" si="5">_xlfn.CONCAT(H5,I5)</f>
+        <f t="shared" ref="J5:J8" si="7">_xlfn.CONCAT(H5,I5)</f>
         <v>339</v>
       </c>
       <c r="N5" s="54">
@@ -2131,19 +2180,30 @@
         <f t="shared" si="4"/>
         <v>2039</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5" s="54">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="6"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" s="15"/>
       <c r="H6" s="54">
@@ -2155,7 +2215,7 @@
         <v>39</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>439</v>
       </c>
       <c r="N6" s="54">
@@ -2182,13 +2242,24 @@
         <f t="shared" si="4"/>
         <v>4139</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="54">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="6"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6">
         <v>5</v>
@@ -2198,16 +2269,15 @@
       </c>
       <c r="E7" s="16"/>
       <c r="H7" s="54">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I7" s="54">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="5"/>
-        <v>539</v>
+        <f t="shared" si="7"/>
+        <v>1139</v>
       </c>
       <c r="N7" s="54">
         <f>C5</f>
@@ -2233,13 +2303,24 @@
         <f t="shared" si="4"/>
         <v>3639</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="54">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="6"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6">
         <v>9</v>
@@ -2248,11 +2329,16 @@
         <v>935132</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
+      <c r="H8" s="54">
+        <v>12</v>
+      </c>
+      <c r="I8" s="54">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
       <c r="J8" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1239</v>
       </c>
       <c r="N8" s="54">
         <f>N7</f>
@@ -2278,22 +2364,32 @@
         <f t="shared" si="4"/>
         <v>2139</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8" s="54">
+        <f>U3</f>
+        <v>19</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="6"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6">
         <v>10</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="H9" s="54"/>
       <c r="N9" s="54">
         <f>C6</f>
         <v>4</v>
@@ -2306,19 +2402,30 @@
         <f t="shared" si="2"/>
         <v>414</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9" s="54">
+        <f t="shared" ref="U9:U27" si="8">U4</f>
+        <v>20</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="C10" s="6">
         <v>11</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10" s="20"/>
       <c r="N10" s="54">
@@ -2333,394 +2440,593 @@
         <f t="shared" si="2"/>
         <v>431</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10" s="54">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="6"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="C11" s="6">
         <v>12</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11" s="21"/>
-      <c r="N11" s="54">
-        <f>C7</f>
-        <v>5</v>
-      </c>
-      <c r="O11" s="54">
-        <f>C$15</f>
+      <c r="N11">
+        <v>11</v>
+      </c>
+      <c r="O11">
         <v>14</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" si="2"/>
-        <v>514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1114</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11" s="54">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="6"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="6">
         <v>32</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E12" s="22"/>
-      <c r="N12" s="54">
-        <f>N11</f>
-        <v>5</v>
-      </c>
-      <c r="O12" s="54">
-        <f>C$31</f>
+      <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="O12">
         <v>31</v>
       </c>
       <c r="P12" t="str">
         <f t="shared" si="2"/>
-        <v>531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1131</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12" s="54">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="6"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C13" s="6">
         <v>29</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E13" s="24"/>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>14</v>
+      </c>
       <c r="P13" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1214</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13" s="54">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="6"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14" s="6">
         <v>13</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E14" s="22"/>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>31</v>
+      </c>
       <c r="P14" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1231</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14" s="54">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="6"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15" s="6">
         <v>14</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E15" s="27"/>
       <c r="P15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15" s="54">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="6"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C16" s="6">
         <v>15</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E16" s="29"/>
       <c r="P16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16" s="54">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="6"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C17" s="6">
         <v>18</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E17" s="30"/>
       <c r="P17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17" s="54">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="6"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C18" s="6">
         <v>19</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E18" s="32"/>
-      <c r="P18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18" s="54">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="6"/>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6">
         <v>39</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E19" s="34"/>
-      <c r="P19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19" s="54">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="6"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="31" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C20" s="6">
         <v>20</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E20" s="35"/>
-    </row>
-    <row r="21" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T20">
+        <v>4</v>
+      </c>
+      <c r="U20" s="54">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="6"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="31" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="C21" s="6">
         <v>41</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="T21">
+        <v>4</v>
+      </c>
+      <c r="U21" s="54">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="6"/>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="31" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C22" s="6">
         <v>36</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E22" s="38"/>
-    </row>
-    <row r="23" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T22">
+        <v>4</v>
+      </c>
+      <c r="U22" s="54">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="6"/>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="C23" s="6">
         <v>21</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E23" s="39"/>
-    </row>
-    <row r="24" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T23">
+        <v>5</v>
+      </c>
+      <c r="U23" s="54">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="6"/>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="40" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C24" s="6">
         <v>22</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E24" s="41"/>
-    </row>
-    <row r="25" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T24">
+        <v>5</v>
+      </c>
+      <c r="U24" s="54">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="6"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C25" s="6">
         <v>23</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E25" s="43"/>
-    </row>
-    <row r="26" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T25">
+        <v>5</v>
+      </c>
+      <c r="U25" s="54">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="6"/>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C26" s="6">
         <v>24</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E26" s="44"/>
-    </row>
-    <row r="27" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T26">
+        <v>5</v>
+      </c>
+      <c r="U26" s="54">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="6"/>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C27" s="6">
         <v>30</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E27" s="45"/>
-    </row>
-    <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T27">
+        <v>5</v>
+      </c>
+      <c r="U27" s="54">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="6"/>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C28" s="6">
         <v>25</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E28" s="46"/>
     </row>
-    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="47" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C29" s="6">
         <v>26</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E29" s="48"/>
     </row>
-    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="49" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C30" s="6">
         <v>33</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E30" s="48"/>
     </row>
-    <row r="31" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="49" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C31" s="6">
         <v>31</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E31" s="50"/>
     </row>
-    <row r="32" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="51" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B32" s="51" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C32" s="6">
         <v>27</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E32" s="52"/>
     </row>
     <row r="33" ht="74" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="T2:V2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
@@ -2734,18 +3040,1123 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872B28D2-7D7F-724D-8BEE-60787919B63D}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.59765625" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" customWidth="1"/>
+    <col min="3" max="3" width="39.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="60">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4046BF2-4440-624E-B546-72D7E45BEEDB}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="34.3984375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="29.3984375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="31.796875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="35.59765625" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="str">
+        <f>Classification!A2</f>
+        <v>COLEÇÃO 5 - PORTUGUÊS</v>
+      </c>
+      <c r="B1" t="str">
+        <f>Classification!B2</f>
+        <v>COLLECTION 5 - ENGLISH</v>
+      </c>
+      <c r="C1" t="str">
+        <f>Classification!C2</f>
+        <v>ID</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" t="str">
+        <f>Classification!D2</f>
+        <v>Número
+da cor</v>
+      </c>
+      <c r="H1">
+        <f>Classification!E2</f>
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <f>Classification!F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="str">
+        <f>Classification!A3</f>
+        <v>1. Floresta</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Classification!B3</f>
+        <v>1. Forest</v>
+      </c>
+      <c r="C2">
+        <f>Classification!C3</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>C2</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2">
+        <f>Classification!D3</f>
+        <v>129912</v>
+      </c>
+      <c r="H2">
+        <f>Classification!E3</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>Classification!F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="str">
+        <f>Classification!A4</f>
+        <v>1.1. Floresta Natural</v>
+      </c>
+      <c r="B3" t="str">
+        <f>Classification!B4</f>
+        <v>1.1. Natural Forest</v>
+      </c>
+      <c r="C3">
+        <f>Classification!C4</f>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D28" si="0">C3</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" t="str">
+        <f>Classification!D4</f>
+        <v>1F4423</v>
+      </c>
+      <c r="H3">
+        <f>Classification!E4</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>Classification!F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="str">
+        <f>Classification!A5</f>
+        <v>1.1.1. Formação Florestal</v>
+      </c>
+      <c r="B4" t="str">
+        <f>Classification!B5</f>
+        <v>1.1.1. Forest Formation</v>
+      </c>
+      <c r="C4">
+        <f>Classification!C5</f>
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4">
+        <f>Classification!D5</f>
+        <v>6400</v>
+      </c>
+      <c r="H4">
+        <f>Classification!E5</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>Classification!F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="str">
+        <f>Classification!A6</f>
+        <v>1.1.2. Formação Savânica</v>
+      </c>
+      <c r="B5" t="str">
+        <f>Classification!B6</f>
+        <v>1.1.2. Savanna Formation</v>
+      </c>
+      <c r="C5">
+        <f>Classification!C6</f>
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="str">
+        <f>Classification!D6</f>
+        <v>32CD32</v>
+      </c>
+      <c r="H5">
+        <f>Classification!E6</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>Classification!F6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="str">
+        <f>Classification!A7</f>
+        <v>1.1.3. Mangue</v>
+      </c>
+      <c r="B6" t="str">
+        <f>Classification!B7</f>
+        <v>1.1.3. Mangrove</v>
+      </c>
+      <c r="C6">
+        <f>Classification!C7</f>
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6">
+        <f>Classification!D7</f>
+        <v>687537</v>
+      </c>
+      <c r="H6">
+        <f>Classification!E7</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>Classification!F7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="str">
+        <f>Classification!A8</f>
+        <v>1.2. Floresta Plantada</v>
+      </c>
+      <c r="B7" t="str">
+        <f>Classification!B8</f>
+        <v>1.2. Forest Plantation</v>
+      </c>
+      <c r="C7">
+        <f>Classification!C8</f>
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7">
+        <f>Classification!D8</f>
+        <v>935132</v>
+      </c>
+      <c r="H7">
+        <f>Classification!E8</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>Classification!F8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="str">
+        <f>Classification!A9</f>
+        <v>2. Formação Natural não Florestal</v>
+      </c>
+      <c r="B8" t="str">
+        <f>Classification!B9</f>
+        <v>2. Non Forest Natural Formation</v>
+      </c>
+      <c r="C8">
+        <f>Classification!C9</f>
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="str">
+        <f>Classification!D9</f>
+        <v>BBFCAC</v>
+      </c>
+      <c r="H8">
+        <f>Classification!E9</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>Classification!F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="str">
+        <f>Classification!A10</f>
+        <v>2.1. Campo Alagado e Área Pantanosa</v>
+      </c>
+      <c r="B9" t="str">
+        <f>Classification!B10</f>
+        <v>2.1. Wetland</v>
+      </c>
+      <c r="C9">
+        <f>Classification!C10</f>
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="str">
+        <f>Classification!D10</f>
+        <v>45C2A5</v>
+      </c>
+      <c r="H9">
+        <f>Classification!E10</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>Classification!F10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="str">
+        <f>Classification!A11</f>
+        <v>2.2. Formação Campestre</v>
+      </c>
+      <c r="B10" t="str">
+        <f>Classification!B11</f>
+        <v>2.2. Grassland Formation</v>
+      </c>
+      <c r="C10">
+        <f>Classification!C11</f>
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" t="str">
+        <f>Classification!D11</f>
+        <v>B8AF4F</v>
+      </c>
+      <c r="H10">
+        <f>Classification!E11</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>Classification!F11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="str">
+        <f>Classification!A12</f>
+        <v>2.3. Apicum</v>
+      </c>
+      <c r="B11" t="str">
+        <f>Classification!B12</f>
+        <v>2.3. Salt Flat</v>
+      </c>
+      <c r="C11">
+        <f>Classification!C12</f>
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" t="str">
+        <f>Classification!D12</f>
+        <v>968c46</v>
+      </c>
+      <c r="H11">
+        <f>Classification!E12</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>Classification!F12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" t="str">
+        <f>Classification!A13</f>
+        <v>2.4. Aﬂoramento Rochoso</v>
+      </c>
+      <c r="B12" t="str">
+        <f>Classification!B13</f>
+        <v>2.4. Rocky Outcrop</v>
+      </c>
+      <c r="C12">
+        <f>Classification!C13</f>
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" t="str">
+        <f>Classification!D13</f>
+        <v>#FF8C00</v>
+      </c>
+      <c r="H12">
+        <f>Classification!E13</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>Classification!F13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" t="str">
+        <f>Classification!A14</f>
+        <v>2.5. Outras Formações não Florestais</v>
+      </c>
+      <c r="B13" t="str">
+        <f>Classification!B14</f>
+        <v>2.5. Other non Forest Formations</v>
+      </c>
+      <c r="C13">
+        <f>Classification!C14</f>
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" t="str">
+        <f>Classification!D14</f>
+        <v>BDB76B</v>
+      </c>
+      <c r="H13">
+        <f>Classification!E14</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>Classification!F14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" t="str">
+        <f>Classification!A15</f>
+        <v>3. Agropecuária</v>
+      </c>
+      <c r="B14" t="str">
+        <f>Classification!B15</f>
+        <v>3. Farming</v>
+      </c>
+      <c r="C14">
+        <f>Classification!C15</f>
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" t="str">
+        <f>Classification!D15</f>
+        <v>FFFFB2</v>
+      </c>
+      <c r="H14">
+        <f>Classification!E15</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>Classification!F15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" t="str">
+        <f>Classification!A16</f>
+        <v>3.1. Pastagem</v>
+      </c>
+      <c r="B15" t="str">
+        <f>Classification!B16</f>
+        <v>3.1. Pasture</v>
+      </c>
+      <c r="C15">
+        <f>Classification!C16</f>
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="str">
+        <f>Classification!D16</f>
+        <v>FFD966</v>
+      </c>
+      <c r="H15">
+        <f>Classification!E16</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>Classification!F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" t="str">
+        <f>Classification!A17</f>
+        <v>3.2. Agricultura</v>
+      </c>
+      <c r="B16" t="str">
+        <f>Classification!B17</f>
+        <v>3.2. Agriculture</v>
+      </c>
+      <c r="C16">
+        <f>Classification!C17</f>
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" t="str">
+        <f>Classification!D17</f>
+        <v>E974ED</v>
+      </c>
+      <c r="H16">
+        <f>Classification!E17</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>Classification!F17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" t="str">
+        <f>Classification!A18</f>
+        <v>3.2.1. Lavoura Temporária</v>
+      </c>
+      <c r="B17" t="str">
+        <f>Classification!B18</f>
+        <v>3.2.1. Temporary Crop</v>
+      </c>
+      <c r="C17">
+        <f>Classification!C18</f>
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="str">
+        <f>Classification!D18</f>
+        <v>D5A6BD</v>
+      </c>
+      <c r="H17">
+        <f>Classification!E18</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>Classification!F18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" t="str">
+        <f>Classification!A19</f>
+        <v>3.2.1.1. Soja</v>
+      </c>
+      <c r="B18" t="str">
+        <f>Classification!B19</f>
+        <v>3.2.1.1. Soybean</v>
+      </c>
+      <c r="C18">
+        <f>Classification!C19</f>
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" t="str">
+        <f>Classification!D19</f>
+        <v>c59ﬀ4</v>
+      </c>
+      <c r="H18">
+        <f>Classification!E19</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>Classification!F19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" t="str">
+        <f>Classification!A20</f>
+        <v>3.2.1.2. Cana</v>
+      </c>
+      <c r="B19" t="str">
+        <f>Classification!B20</f>
+        <v>3.2.1.2. Sugar cane</v>
+      </c>
+      <c r="C19">
+        <f>Classification!C20</f>
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" t="str">
+        <f>Classification!D20</f>
+        <v>C27BA0</v>
+      </c>
+      <c r="H19">
+        <f>Classification!E20</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>Classification!F20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" t="str">
+        <f>Classification!A21</f>
+        <v>3.2.1.3. Outras Lavouras Temporárias</v>
+      </c>
+      <c r="B20" t="str">
+        <f>Classification!B21</f>
+        <v>3.2.1.3. Other Temporary Crops</v>
+      </c>
+      <c r="C20">
+        <f>Classification!C21</f>
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" t="str">
+        <f>Classification!D21</f>
+        <v>e787f8</v>
+      </c>
+      <c r="H20" t="str">
+        <f>Classification!E21</f>
+        <v>`</v>
+      </c>
+      <c r="I20">
+        <f>Classification!F21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" t="str">
+        <f>Classification!A22</f>
+        <v>3.2.2. Lavoura Perene</v>
+      </c>
+      <c r="B21" t="str">
+        <f>Classification!B22</f>
+        <v>3.2.2. Perennial Crop</v>
+      </c>
+      <c r="C21">
+        <f>Classification!C22</f>
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" t="str">
+        <f>Classification!D22</f>
+        <v>f3b4f1</v>
+      </c>
+      <c r="H21">
+        <f>Classification!E22</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>Classification!F22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" t="str">
+        <f>Classification!A23</f>
+        <v>3.3. Mosaico de Agricultura e Pastagem</v>
+      </c>
+      <c r="B22" t="str">
+        <f>Classification!B23</f>
+        <v>3.3. Mosaic of Agriculture and Pasture</v>
+      </c>
+      <c r="C22">
+        <f>Classification!C23</f>
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" t="str">
+        <f>Classification!D23</f>
+        <v>FFEFC3</v>
+      </c>
+      <c r="H22">
+        <f>Classification!E23</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>Classification!F23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" t="str">
+        <f>Classification!A24</f>
+        <v>4. Área não Vegetada</v>
+      </c>
+      <c r="B23" t="str">
+        <f>Classification!B24</f>
+        <v>4. Non vegetated area</v>
+      </c>
+      <c r="C23">
+        <f>Classification!C24</f>
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" t="str">
+        <f>Classification!D24</f>
+        <v>EA9999</v>
+      </c>
+      <c r="H23">
+        <f>Classification!E24</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>Classification!F24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" t="str">
+        <f>Classification!A25</f>
+        <v>4.1. Praia e Duna</v>
+      </c>
+      <c r="B24" t="str">
+        <f>Classification!B25</f>
+        <v>4.1. Beach and Dune</v>
+      </c>
+      <c r="C24">
+        <f>Classification!C25</f>
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" t="str">
+        <f>Classification!D25</f>
+        <v>DD7E6B</v>
+      </c>
+      <c r="H24">
+        <f>Classification!E25</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>Classification!F25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" t="str">
+        <f>Classification!A26</f>
+        <v>4.2. Infraestrutura Urbana</v>
+      </c>
+      <c r="B25" t="str">
+        <f>Classification!B26</f>
+        <v>4.2. Urban Infrastructure</v>
+      </c>
+      <c r="C25">
+        <f>Classification!C26</f>
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" t="str">
+        <f>Classification!D26</f>
+        <v>af2a2a</v>
+      </c>
+      <c r="H25">
+        <f>Classification!E26</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>Classification!F26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" t="str">
+        <f>Classification!A27</f>
+        <v>4.3. Mineração</v>
+      </c>
+      <c r="B26" t="str">
+        <f>Classification!B27</f>
+        <v>4.3. Mining</v>
+      </c>
+      <c r="C26">
+        <f>Classification!C27</f>
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" t="str">
+        <f>Classification!D27</f>
+        <v>8A2BE2</v>
+      </c>
+      <c r="H26">
+        <f>Classification!E27</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>Classification!F27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" t="str">
+        <f>Classification!A28</f>
+        <v>4.4. Outras Áreas não Vegetadas</v>
+      </c>
+      <c r="B27" t="str">
+        <f>Classification!B28</f>
+        <v>4.4. Other non Vegetated Areas</v>
+      </c>
+      <c r="C27">
+        <f>Classification!C28</f>
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" t="str">
+        <f>Classification!D28</f>
+        <v>FF99FF</v>
+      </c>
+      <c r="H27">
+        <f>Classification!E28</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>Classification!F28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" t="str">
+        <f>Classification!A29</f>
+        <v>5. Corpo D'água</v>
+      </c>
+      <c r="B28" t="str">
+        <f>Classification!B29</f>
+        <v>5. Water</v>
+      </c>
+      <c r="C28">
+        <f>Classification!C29</f>
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" t="str">
+        <f>Classification!D29</f>
+        <v>0000FF</v>
+      </c>
+      <c r="H28">
+        <f>Classification!E29</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>Classification!F29</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591C3BC7-DCF0-0147-88F7-914CE10B0D5D}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
-        <f>B1-1</f>
+        <f t="shared" ref="A1:A6" si="0">B1-1</f>
         <v>138</v>
       </c>
       <c r="B1" t="str">
@@ -2758,7 +4169,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
-        <f t="shared" ref="A2:A5" si="0">B2-1</f>
+        <f t="shared" si="0"/>
         <v>238</v>
       </c>
       <c r="B2" t="str">
@@ -2798,11 +4209,11 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>538</v>
+        <v>1138</v>
       </c>
       <c r="B5" t="str">
         <f>Classification!J7</f>
-        <v>539</v>
+        <v>1139</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2810,36 +4221,36 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1238</v>
+      </c>
+      <c r="B6" t="str">
+        <f>Classification!J8</f>
+        <v>1239</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>-50</v>
+      </c>
+      <c r="B7">
         <f>A1</f>
         <v>138</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="str">
-        <f>B1</f>
-        <v>139</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ref="B7:B10" si="1">A2</f>
-        <v>238</v>
-      </c>
       <c r="C7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
-        <f t="shared" ref="A8:A11" si="2">B2</f>
+        <f>B2</f>
         <v>239</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
+        <f>A3</f>
         <v>338</v>
       </c>
       <c r="C8">
@@ -2848,11 +4259,11 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
-        <f t="shared" si="2"/>
+        <f>B3</f>
         <v>339</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
+        <f>A4</f>
         <v>438</v>
       </c>
       <c r="C9">
@@ -2861,12 +4272,12 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
-        <f t="shared" si="2"/>
+        <f>B4</f>
         <v>439</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
-        <v>538</v>
+        <f>A5</f>
+        <v>1138</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2874,13 +4285,26 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
-        <f t="shared" si="2"/>
-        <v>539</v>
+        <f>B5</f>
+        <v>1139</v>
       </c>
       <c r="B11">
-        <v>4000</v>
+        <f>A6</f>
+        <v>1238</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="str">
+        <f>B6</f>
+        <v>1239</v>
+      </c>
+      <c r="B12">
+        <v>4141</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
     </row>
@@ -2889,12 +4313,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8E9043-F011-FD41-92A6-949BDE7ED874}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2914,7 +4338,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="B2">
         <f>A1</f>
@@ -2930,7 +4354,7 @@
         <v>1539</v>
       </c>
       <c r="B3">
-        <v>4000</v>
+        <v>4141</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2941,12 +4365,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67C67AD-67C9-2B4E-BE67-1868A8C5EAA4}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2966,7 +4390,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
-        <f t="shared" ref="A2:A5" si="0">B2-18</f>
+        <f t="shared" ref="A2:A9" si="0">B2-18</f>
         <v>213</v>
       </c>
       <c r="B2" t="str">
@@ -3006,11 +4430,11 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>513</v>
+        <v>1113</v>
       </c>
       <c r="B5" t="str">
         <f>Classification!P12</f>
-        <v>531</v>
+        <v>1131</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3018,36 +4442,36 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1213</v>
+      </c>
+      <c r="B6" t="str">
+        <f>Classification!P14</f>
+        <v>1231</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>-50</v>
+      </c>
+      <c r="B7">
         <f>A1</f>
         <v>113</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="str">
-        <f>B1</f>
-        <v>131</v>
-      </c>
-      <c r="B7">
-        <f>A2</f>
-        <v>213</v>
-      </c>
       <c r="C7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
-        <f t="shared" ref="A8:A11" si="1">B2</f>
+        <f>B2</f>
         <v>231</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B10" si="2">A3</f>
+        <f>A3</f>
         <v>313</v>
       </c>
       <c r="C8">
@@ -3056,11 +4480,11 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A9:A12" si="1">B3</f>
         <v>331</v>
       </c>
       <c r="B9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B9:B11" si="2">A4</f>
         <v>413</v>
       </c>
       <c r="C9">
@@ -3074,7 +4498,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="2"/>
-        <v>513</v>
+        <v>1113</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3083,12 +4507,25 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f t="shared" si="1"/>
-        <v>531</v>
+        <v>1131</v>
       </c>
       <c r="B11">
-        <v>4000</v>
+        <f t="shared" si="2"/>
+        <v>1213</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="str">
+        <f t="shared" si="1"/>
+        <v>1231</v>
+      </c>
+      <c r="B12">
+        <v>4141</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
     </row>
@@ -3097,12 +4534,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0850F94A-3E42-8E4B-A976-B6EEFD866CF9}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3174,7 +4611,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="B6">
         <v>1938</v>
@@ -3235,6 +4672,431 @@
         <v>5000</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D814793B-7261-B94F-A44C-848EB6E48F90}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>118</v>
+      </c>
+      <c r="B1">
+        <v>121</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>121</v>
+      </c>
+      <c r="B2">
+        <v>135</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>135</v>
+      </c>
+      <c r="B3">
+        <v>136</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>136</v>
+      </c>
+      <c r="B4">
+        <v>140</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>140</v>
+      </c>
+      <c r="B5">
+        <v>141</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>141</v>
+      </c>
+      <c r="B6">
+        <v>218</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <f>A1+100</f>
+        <v>218</v>
+      </c>
+      <c r="B7">
+        <f>B1+100</f>
+        <v>221</v>
+      </c>
+      <c r="C7">
+        <f>C1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <f t="shared" ref="A8:B8" si="0">A2+100</f>
+        <v>221</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C29" si="1">C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <f t="shared" ref="A9:B9" si="2">A3+100</f>
+        <v>235</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>236</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <f t="shared" ref="A10:B10" si="3">A4+100</f>
+        <v>236</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <f t="shared" ref="A11:B11" si="4">A5+100</f>
+        <v>240</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="4"/>
+        <v>241</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <f t="shared" ref="A12:B12" si="5">A6+100</f>
+        <v>241</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="5"/>
+        <v>318</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <f t="shared" ref="A13:B13" si="6">A7+100</f>
+        <v>318</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="6"/>
+        <v>321</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <f t="shared" ref="A14:B14" si="7">A8+100</f>
+        <v>321</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="7"/>
+        <v>335</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <f t="shared" ref="A15:B15" si="8">A9+100</f>
+        <v>335</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="8"/>
+        <v>336</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <f t="shared" ref="A16:B16" si="9">A10+100</f>
+        <v>336</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="9"/>
+        <v>340</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <f t="shared" ref="A17:B17" si="10">A11+100</f>
+        <v>340</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="10"/>
+        <v>341</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <f t="shared" ref="A18:B18" si="11">A12+100</f>
+        <v>341</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="11"/>
+        <v>418</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <f t="shared" ref="A19:B19" si="12">A13+100</f>
+        <v>418</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="12"/>
+        <v>421</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <f t="shared" ref="A20:B20" si="13">A14+100</f>
+        <v>421</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="13"/>
+        <v>435</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <f t="shared" ref="A21:B21" si="14">A15+100</f>
+        <v>435</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="14"/>
+        <v>436</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <f t="shared" ref="A22:B22" si="15">A16+100</f>
+        <v>436</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="15"/>
+        <v>440</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <f t="shared" ref="A23:B23" si="16">A17+100</f>
+        <v>440</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="16"/>
+        <v>441</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <f t="shared" ref="A24:B24" si="17">A18+100</f>
+        <v>441</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="17"/>
+        <v>518</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <f t="shared" ref="A25:B25" si="18">A19+100</f>
+        <v>518</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="18"/>
+        <v>521</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <f t="shared" ref="A26:B26" si="19">A20+100</f>
+        <v>521</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="19"/>
+        <v>535</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <f t="shared" ref="A27:B27" si="20">A21+100</f>
+        <v>535</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="20"/>
+        <v>536</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <f t="shared" ref="A28:B28" si="21">A22+100</f>
+        <v>536</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="21"/>
+        <v>540</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <f t="shared" ref="A29:B29" si="22">A23+100</f>
+        <v>540</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="22"/>
+        <v>541</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>541</v>
+      </c>
+      <c r="B30">
+        <v>5000</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>-50</v>
+      </c>
+      <c r="B31">
+        <v>118</v>
+      </c>
+      <c r="C31">
         <v>0</v>
       </c>
     </row>
